--- a/uge 36/opgave.xlsx
+++ b/uge 36/opgave.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eamvdk-my.sharepoint.com/personal/xbi_eamv_dk/Documents/valgfag Database CMS 2020/uge material 2020/uge 36 data +php/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xbi\Documents\GitHub2valgfag\MMDvalgfag\uge 36\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="8_{C465D828-C23F-4723-B4E6-F676D8A9AC1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2C5B10B9-2684-4329-8196-D28DDFBC8F22}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73AA4E5-CE83-4393-9DB9-27FBEA558097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7A06937D-6626-4AC5-94B2-3581999C8277}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{7A06937D-6626-4AC5-94B2-3581999C8277}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -35,15 +35,26 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={17B85C2F-FC32-4A52-B9D6-98565D51C092}</author>
     <author>tc={AE1247AE-4296-40D0-8176-E43A8B420010}</author>
   </authors>
   <commentList>
-    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{AE1247AE-4296-40D0-8176-E43A8B420010}">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{17B85C2F-FC32-4A52-B9D6-98565D51C092}">
       <text>
         <t>[Trådet kommentar]
 Din version af Excel lader dig læse denne trådede kommentar. Eventuelle ændringer vil dog blive fjernet, hvis filen åbnes i en nyere version af Excel. Få mere at vide: https://go.microsoft.com/fwlink/?linkid=870924
 Kommentar:
-    https://www.vestjyskmarketing.dk/om-os/kursuskalender/vm-cms-kursus</t>
+    fredag.kl 12 MiniCMS slut</t>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="1" shapeId="0" xr:uid="{AE1247AE-4296-40D0-8176-E43A8B420010}">
+      <text>
+        <t>[Trådet kommentar]
+Din version af Excel lader dig læse denne trådede kommentar. Eventuelle ændringer vil dog blive fjernet, hvis filen åbnes i en nyere version af Excel. Få mere at vide: https://go.microsoft.com/fwlink/?linkid=870924
+Kommentar:
+    https://www.vestjyskmarketing.dk/om-os/kursuskalender/vm-cms-kursus
+Besvar:
+    selvstudie skal færdi før uge 43</t>
       </text>
     </comment>
   </commentList>
@@ -51,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Navn</t>
   </si>
@@ -60,16 +71,10 @@
 PHP essential training</t>
   </si>
   <si>
-    <t>efterårs ferie</t>
-  </si>
-  <si>
     <t>Aflevering Opgave list / Database og CMS</t>
   </si>
   <si>
     <t>link</t>
-  </si>
-  <si>
-    <t>sammen med xxxx</t>
   </si>
   <si>
     <t xml:space="preserve"> selvstudie
@@ -83,12 +88,6 @@
   SEO</t>
   </si>
   <si>
-    <t>Uge 43 Projekt</t>
-  </si>
-  <si>
-    <t>Uge 40 Projekt start</t>
-  </si>
-  <si>
     <t>uge 39 sikkerhed</t>
   </si>
   <si>
@@ -120,6 +119,16 @@
   </si>
   <si>
     <t>color code: individule</t>
+  </si>
+  <si>
+    <t>efterårsferie</t>
+  </si>
+  <si>
+    <t>Uge 40 Projekt Mini CMS  start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uge 43 Eksamens
+Projekt </t>
   </si>
 </sst>
 </file>
@@ -563,18 +572,24 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="Q2" dT="2020-08-28T08:14:09.72" personId="{06772780-DE7E-4DFF-91B6-7133417335A9}" id="{AE1247AE-4296-40D0-8176-E43A8B420010}">
+  <threadedComment ref="M2" dT="2020-09-01T06:22:32.04" personId="{06772780-DE7E-4DFF-91B6-7133417335A9}" id="{17B85C2F-FC32-4A52-B9D6-98565D51C092}">
+    <text>fredag.kl 12 MiniCMS slut</text>
+  </threadedComment>
+  <threadedComment ref="O2" dT="2020-08-28T08:14:09.72" personId="{06772780-DE7E-4DFF-91B6-7133417335A9}" id="{AE1247AE-4296-40D0-8176-E43A8B420010}">
     <text>https://www.vestjyskmarketing.dk/om-os/kursuskalender/vm-cms-kursus</text>
+  </threadedComment>
+  <threadedComment ref="O2" dT="2020-09-01T06:14:05.86" personId="{06772780-DE7E-4DFF-91B6-7133417335A9}" id="{A9362417-2E5C-4238-9627-2098A12A8523}" parentId="{AE1247AE-4296-40D0-8176-E43A8B420010}">
+    <text>selvstudie skal færdi før uge 43</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8E32550-2221-4962-A5B1-1556B41C2B8D}">
-  <dimension ref="A1:S54"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -584,12 +599,14 @@
     <col min="7" max="7" width="11.1796875" customWidth="1"/>
     <col min="9" max="10" width="11.6328125" customWidth="1"/>
     <col min="11" max="12" width="15.36328125" customWidth="1"/>
-    <col min="17" max="17" width="12" customWidth="1"/>
+    <col min="14" max="14" width="11.7265625" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -603,142 +620,135 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-    </row>
-    <row r="2" spans="1:19" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:17" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="7" t="s">
+      <c r="L2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4"/>
       <c r="K4" t="s">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16"/>
@@ -751,7 +761,7 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
